--- a/mosip_master/xlsx/valid_document.xlsx
+++ b/mosip_master/xlsx/valid_document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\Civ_master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02041E0B-5F53-4AFE-8519-ABABCD07E4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0EB1C5-508C-45CF-9E1C-CA9AA70941CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/mosip_master/xlsx/valid_document.xlsx
+++ b/mosip_master/xlsx/valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0EB1C5-508C-45CF-9E1C-CA9AA70941CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B932C-3F33-45F5-B4D2-AAF9CAD2541E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>doctyp_code</t>
   </si>
@@ -45,15 +45,9 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>POA</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>POB</t>
-  </si>
-  <si>
     <t>DOC001</t>
   </si>
   <si>
@@ -75,43 +69,22 @@
     <t>DOC007</t>
   </si>
   <si>
-    <t>DOC008</t>
-  </si>
-  <si>
     <t>DOC009</t>
   </si>
   <si>
     <t>DOC010</t>
   </si>
   <si>
-    <t>DOC011</t>
-  </si>
-  <si>
-    <t>DOC012</t>
-  </si>
-  <si>
     <t>DOC013</t>
   </si>
   <si>
     <t>DOC014</t>
   </si>
   <si>
-    <t>DOC015</t>
-  </si>
-  <si>
-    <t>DOC016</t>
-  </si>
-  <si>
-    <t>DOC017</t>
-  </si>
-  <si>
     <t>DOC018</t>
   </si>
   <si>
     <t>fra</t>
-  </si>
-  <si>
-    <t>POC</t>
   </si>
   <si>
     <t>POM</t>
@@ -500,22 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1024" width="11.54296875" customWidth="1"/>
+    <col min="1023" max="1024" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,255 +502,171 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/mosip_master/xlsx/valid_document.xlsx
+++ b/mosip_master/xlsx/valid_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B932C-3F33-45F5-B4D2-AAF9CAD2541E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB926F1-010A-4570-947B-C6829F092D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>doctyp_code</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>DOC010</t>
-  </si>
-  <si>
-    <t>DOC013</t>
-  </si>
-  <si>
-    <t>DOC014</t>
   </si>
   <si>
     <t>DOC018</t>
@@ -473,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -524,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -538,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -552,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -566,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -580,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -594,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -608,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -622,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -633,40 +627,12 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
